--- a/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA263A9-C42F-4923-873D-4C622B9787F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A46931-A3B0-4FEA-BB4B-C60DEBE6B8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC5B20E8-4D0C-406E-A92D-3724B7E8E0AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3F8ACC-EF9C-4D99-AFF9-CFDC2DBB661A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B745BC-3F50-4A1A-AC94-E5A329043D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5705C3EB-95D5-4E52-BE09-DF9C62B6A683}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A46931-A3B0-4FEA-BB4B-C60DEBE6B8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DD28E1-1015-47CA-976C-B3B4AEB486F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3F8ACC-EF9C-4D99-AFF9-CFDC2DBB661A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECC084-4FFF-4F18-99CB-F7F5818A2838}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muy en desacuerdo</t>
@@ -74,784 +74,775 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1266,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5705C3EB-95D5-4E52-BE09-DF9C62B6A683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908ACE8-8A67-4187-A747-ED821EA0710A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1408,10 +1399,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -1420,19 +1411,19 @@
         <v>4091</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -1441,13 +1432,13 @@
         <v>4833</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -1456,13 +1447,13 @@
         <v>7734</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1471,19 +1462,19 @@
         <v>12568</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -1492,13 +1483,13 @@
         <v>12339</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>45</v>
@@ -1507,13 +1498,13 @@
         <v>21210</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -1522,19 +1513,19 @@
         <v>33549</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -1543,13 +1534,13 @@
         <v>41161</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -1558,13 +1549,13 @@
         <v>67189</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -1573,19 +1564,19 @@
         <v>108350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>45</v>
@@ -1594,13 +1585,13 @@
         <v>41104</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -1609,13 +1600,13 @@
         <v>32070</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -1624,13 +1615,13 @@
         <v>73174</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,13 +1636,13 @@
         <v>101349</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>242</v>
@@ -1660,13 +1651,13 @@
         <v>130383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>359</v>
@@ -1675,18 +1666,18 @@
         <v>231732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1698,13 +1689,13 @@
         <v>11351</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -1713,13 +1704,13 @@
         <v>11642</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1728,19 +1719,19 @@
         <v>22993</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>24</v>
@@ -1749,13 +1740,13 @@
         <v>20726</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -1764,13 +1755,13 @@
         <v>27980</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -1779,19 +1770,19 @@
         <v>48706</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>67</v>
@@ -1800,13 +1791,13 @@
         <v>52736</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>141</v>
@@ -1815,13 +1806,13 @@
         <v>76694</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>208</v>
@@ -1830,19 +1821,19 @@
         <v>129430</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>304</v>
@@ -1851,13 +1842,13 @@
         <v>248217</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>487</v>
@@ -1866,13 +1857,13 @@
         <v>276518</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>791</v>
@@ -1881,19 +1872,19 @@
         <v>524735</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>207</v>
@@ -1902,13 +1893,13 @@
         <v>216793</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -1917,13 +1908,13 @@
         <v>198760</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
@@ -1932,13 +1923,13 @@
         <v>415553</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1944,13 @@
         <v>549823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>993</v>
@@ -1968,13 +1959,13 @@
         <v>591594</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1605</v>
@@ -1983,18 +1974,18 @@
         <v>1141417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2006,13 +1997,13 @@
         <v>11624</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2021,13 +2012,13 @@
         <v>15510</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2036,10 +2027,10 @@
         <v>27134</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>114</v>
@@ -2048,7 +2039,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>33</v>
@@ -2075,10 +2066,10 @@
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -2087,19 +2078,19 @@
         <v>77155</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>106</v>
@@ -2108,7 +2099,7 @@
         <v>91686</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>124</v>
@@ -2144,13 +2135,13 @@
         <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>453</v>
@@ -2159,13 +2150,13 @@
         <v>430605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>751</v>
@@ -2174,13 +2165,13 @@
         <v>483197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>1204</v>
@@ -2189,19 +2180,19 @@
         <v>913802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>362</v>
@@ -2210,13 +2201,13 @@
         <v>478443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>455</v>
@@ -2225,13 +2216,13 @@
         <v>376497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -2240,13 +2231,13 @@
         <v>854940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2252,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1513</v>
@@ -2276,13 +2267,13 @@
         <v>1056818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>2477</v>
@@ -2291,18 +2282,18 @@
         <v>2096066</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2305,13 @@
         <v>7379</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2350,13 +2341,13 @@
         <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>14</v>
@@ -2365,13 +2356,13 @@
         <v>14563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -2380,13 +2371,13 @@
         <v>17493</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -2395,19 +2386,19 @@
         <v>32056</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>47</v>
@@ -2416,13 +2407,13 @@
         <v>44947</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>87</v>
@@ -2431,13 +2422,13 @@
         <v>62065</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -2446,19 +2437,19 @@
         <v>107012</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>348</v>
@@ -2467,13 +2458,13 @@
         <v>365141</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>559</v>
@@ -2482,10 +2473,10 @@
         <v>505334</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -2500,16 +2491,16 @@
         <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>260</v>
@@ -2518,13 +2509,13 @@
         <v>295670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>363</v>
@@ -2533,13 +2524,13 @@
         <v>276357</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>623</v>
@@ -2548,13 +2539,13 @@
         <v>572027</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2560,13 @@
         <v>727701</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1043</v>
@@ -2584,13 +2575,13 @@
         <v>870814</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1718</v>
@@ -2599,18 +2590,18 @@
         <v>1598515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2613,13 @@
         <v>9989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2637,13 +2628,13 @@
         <v>12476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2655,7 +2646,7 @@
         <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>196</v>
@@ -2664,7 +2655,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>38</v>
@@ -2709,13 +2700,13 @@
         <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>108</v>
@@ -2724,7 +2715,7 @@
         <v>94924</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
@@ -2739,13 +2730,13 @@
         <v>138415</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>307</v>
@@ -2754,19 +2745,19 @@
         <v>233339</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>479</v>
@@ -2775,13 +2766,13 @@
         <v>440210</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>738</v>
@@ -2790,13 +2781,13 @@
         <v>509878</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1217</v>
@@ -2805,19 +2796,19 @@
         <v>950088</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>367</v>
@@ -2826,13 +2817,13 @@
         <v>383196</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>518</v>
@@ -2841,13 +2832,13 @@
         <v>428490</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>885</v>
@@ -2856,13 +2847,13 @@
         <v>811686</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2868,13 @@
         <v>963030</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>1559</v>
@@ -2892,13 +2883,13 @@
         <v>1148422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>2562</v>
@@ -2907,13 +2898,13 @@
         <v>2111452</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2921,13 @@
         <v>42255</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>69</v>
@@ -2945,13 +2936,13 @@
         <v>51372</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -2960,19 +2951,19 @@
         <v>93626</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>114</v>
@@ -2981,13 +2972,13 @@
         <v>101722</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>250</v>
@@ -2996,13 +2987,13 @@
         <v>162636</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>364</v>
@@ -3011,19 +3002,19 @@
         <v>264359</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>341</v>
@@ -3032,13 +3023,13 @@
         <v>296632</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>682</v>
@@ -3047,13 +3038,13 @@
         <v>429733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>1023</v>
@@ -3062,19 +3053,19 @@
         <v>726365</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>1635</v>
@@ -3083,13 +3074,13 @@
         <v>1525335</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>2668</v>
@@ -3098,13 +3089,13 @@
         <v>1842116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>4303</v>
@@ -3113,19 +3104,19 @@
         <v>3367451</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>1241</v>
@@ -3134,13 +3125,13 @@
         <v>1415207</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>1681</v>
@@ -3149,13 +3140,13 @@
         <v>1312174</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>2922</v>
@@ -3164,13 +3155,13 @@
         <v>2727381</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3176,13 @@
         <v>3381152</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>5350</v>
@@ -3200,13 +3191,13 @@
         <v>3798030</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>8721</v>
@@ -3215,18 +3206,18 @@
         <v>7179182</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DD28E1-1015-47CA-976C-B3B4AEB486F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9ABBAA7-4A89-4ABF-86AC-9AA55DC913A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECC084-4FFF-4F18-99CB-F7F5818A2838}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5471E579-7352-40ED-947A-849E9E3D573D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>1,89%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -101,676 +104,685 @@
     <t>4,77%</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>9,8%</t>
@@ -779,25 +791,25 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>42,16%</t>
+    <t>42,75%</t>
   </si>
   <si>
     <t>47,1%</t>
@@ -806,43 +818,40 @@
     <t>48,5%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>54,15%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>45,09%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1257,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908ACE8-8A67-4187-A747-ED821EA0710A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE33817D-7960-4515-9CDD-2B51FEA95372}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1399,10 +1408,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -1411,19 +1420,19 @@
         <v>4091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -1432,13 +1441,13 @@
         <v>4833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -1447,13 +1456,13 @@
         <v>7734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1462,19 +1471,19 @@
         <v>12568</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -1483,13 +1492,13 @@
         <v>12339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>45</v>
@@ -1498,13 +1507,13 @@
         <v>21210</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -1513,19 +1522,19 @@
         <v>33549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -1534,13 +1543,13 @@
         <v>41161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -1549,13 +1558,13 @@
         <v>67189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -1564,19 +1573,19 @@
         <v>108350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>45</v>
@@ -1585,13 +1594,13 @@
         <v>41104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -1600,13 +1609,13 @@
         <v>32070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -1615,13 +1624,13 @@
         <v>73174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1645,13 @@
         <v>101349</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>242</v>
@@ -1651,13 +1660,13 @@
         <v>130383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>359</v>
@@ -1666,18 +1675,18 @@
         <v>231732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1689,13 +1698,13 @@
         <v>11351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -1704,13 +1713,13 @@
         <v>11642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1719,19 +1728,19 @@
         <v>22993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>24</v>
@@ -1740,13 +1749,13 @@
         <v>20726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -1755,13 +1764,13 @@
         <v>27980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -1770,19 +1779,19 @@
         <v>48706</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>67</v>
@@ -1791,13 +1800,13 @@
         <v>52736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>141</v>
@@ -1806,13 +1815,13 @@
         <v>76694</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>208</v>
@@ -1821,19 +1830,19 @@
         <v>129430</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>304</v>
@@ -1842,13 +1851,13 @@
         <v>248217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>487</v>
@@ -1857,13 +1866,13 @@
         <v>276518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>791</v>
@@ -1872,19 +1881,19 @@
         <v>524735</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>207</v>
@@ -1893,13 +1902,13 @@
         <v>216793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -1908,13 +1917,13 @@
         <v>198760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
@@ -1923,13 +1932,13 @@
         <v>415553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1953,13 @@
         <v>549823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>993</v>
@@ -1959,13 +1968,13 @@
         <v>591594</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1605</v>
@@ -1974,18 +1983,18 @@
         <v>1141417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1997,13 +2006,13 @@
         <v>11624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2012,13 +2021,13 @@
         <v>15510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2027,10 +2036,10 @@
         <v>27134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>114</v>
@@ -2039,7 +2048,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>33</v>
@@ -2066,10 +2075,10 @@
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -2078,19 +2087,19 @@
         <v>77155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>106</v>
@@ -2099,7 +2108,7 @@
         <v>91686</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>124</v>
@@ -2135,13 +2144,13 @@
         <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>453</v>
@@ -2150,13 +2159,13 @@
         <v>430605</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>751</v>
@@ -2165,13 +2174,13 @@
         <v>483197</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>1204</v>
@@ -2180,19 +2189,19 @@
         <v>913802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>362</v>
@@ -2201,13 +2210,13 @@
         <v>478443</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>455</v>
@@ -2216,13 +2225,13 @@
         <v>376497</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>817</v>
@@ -2231,13 +2240,13 @@
         <v>854940</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2261,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1513</v>
@@ -2267,13 +2276,13 @@
         <v>1056818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>2477</v>
@@ -2282,18 +2291,18 @@
         <v>2096066</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2305,13 +2314,13 @@
         <v>7379</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2341,13 +2350,13 @@
         <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>14</v>
@@ -2356,13 +2365,13 @@
         <v>14563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -2371,13 +2380,13 @@
         <v>17493</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -2386,19 +2395,19 @@
         <v>32056</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>47</v>
@@ -2407,13 +2416,13 @@
         <v>44947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>87</v>
@@ -2422,13 +2431,13 @@
         <v>62065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>134</v>
@@ -2437,19 +2446,19 @@
         <v>107012</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>348</v>
@@ -2458,13 +2467,13 @@
         <v>365141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>559</v>
@@ -2473,10 +2482,10 @@
         <v>505334</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
@@ -2491,16 +2500,16 @@
         <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>260</v>
@@ -2509,13 +2518,13 @@
         <v>295670</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>363</v>
@@ -2524,13 +2533,13 @@
         <v>276357</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>623</v>
@@ -2539,13 +2548,13 @@
         <v>572027</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2569,13 @@
         <v>727701</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1043</v>
@@ -2575,13 +2584,13 @@
         <v>870814</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1718</v>
@@ -2590,18 +2599,18 @@
         <v>1598515</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2622,13 @@
         <v>9989</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2628,13 +2637,13 @@
         <v>12476</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2646,7 +2655,7 @@
         <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>196</v>
@@ -2655,7 +2664,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>38</v>
@@ -2700,13 +2709,13 @@
         <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>108</v>
@@ -2715,7 +2724,7 @@
         <v>94924</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>206</v>
@@ -2730,13 +2739,13 @@
         <v>138415</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>307</v>
@@ -2745,19 +2754,19 @@
         <v>233339</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>479</v>
@@ -2766,13 +2775,13 @@
         <v>440210</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>738</v>
@@ -2781,13 +2790,13 @@
         <v>509878</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1217</v>
@@ -2796,19 +2805,19 @@
         <v>950088</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>367</v>
@@ -2817,13 +2826,13 @@
         <v>383196</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>518</v>
@@ -2832,13 +2841,13 @@
         <v>428490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>885</v>
@@ -2847,13 +2856,13 @@
         <v>811686</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2877,13 @@
         <v>963030</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>1559</v>
@@ -2883,13 +2892,13 @@
         <v>1148422</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>2562</v>
@@ -2898,13 +2907,13 @@
         <v>2111452</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2930,13 @@
         <v>42255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>69</v>
@@ -2936,13 +2945,13 @@
         <v>51372</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -2951,19 +2960,19 @@
         <v>93626</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>114</v>
@@ -2972,13 +2981,13 @@
         <v>101722</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>250</v>
@@ -2987,13 +2996,13 @@
         <v>162636</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>364</v>
@@ -3002,19 +3011,19 @@
         <v>264359</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>341</v>
@@ -3023,13 +3032,13 @@
         <v>296632</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>682</v>
@@ -3038,13 +3047,13 @@
         <v>429733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>1023</v>
@@ -3053,19 +3062,19 @@
         <v>726365</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>1635</v>
@@ -3074,13 +3083,13 @@
         <v>1525335</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>2668</v>
@@ -3089,13 +3098,13 @@
         <v>1842116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>4303</v>
@@ -3104,19 +3113,19 @@
         <v>3367451</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>1241</v>
@@ -3125,13 +3134,13 @@
         <v>1415207</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>1681</v>
@@ -3140,13 +3149,13 @@
         <v>1312174</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>2922</v>
@@ -3155,13 +3164,13 @@
         <v>2727381</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3185,13 @@
         <v>3381152</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>5350</v>
@@ -3191,13 +3200,13 @@
         <v>3798030</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>8721</v>
@@ -3206,18 +3215,18 @@
         <v>7179182</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9ABBAA7-4A89-4ABF-86AC-9AA55DC913A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CB7C35-FB8A-43B2-8883-297817A63DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5471E579-7352-40ED-947A-849E9E3D573D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D68D3B92-1CC3-415C-8420-3E7263FE6BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="233">
   <si>
     <t>Población según si se ha sentido bien consigo mismo/a en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -65,793 +65,673 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Muy en desacuerdo</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1266,8 +1146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE33817D-7960-4515-9CDD-2B51FEA95372}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96226EFA-24C9-4D3A-9207-8293C3287F6F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1384,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>1912</v>
+        <v>12362</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1399,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>2179</v>
+        <v>12879</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1414,10 +1294,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>4091</v>
+        <v>25240</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1435,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>4833</v>
+        <v>23408</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1450,10 +1330,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I5" s="7">
-        <v>7734</v>
+        <v>32212</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1465,10 +1345,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N5" s="7">
-        <v>12568</v>
+        <v>55619</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1486,10 +1366,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>12339</v>
+        <v>60409</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1501,10 +1381,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="I6" s="7">
-        <v>21210</v>
+        <v>89726</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1516,10 +1396,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>33549</v>
+        <v>150135</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1537,10 +1417,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="D7" s="7">
-        <v>41161</v>
+        <v>287943</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1552,10 +1432,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>620</v>
       </c>
       <c r="I7" s="7">
-        <v>67189</v>
+        <v>324853</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1567,10 +1447,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>184</v>
+        <v>975</v>
       </c>
       <c r="N7" s="7">
-        <v>108350</v>
+        <v>612795</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1588,10 +1468,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7">
-        <v>41104</v>
+        <v>250727</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1603,10 +1483,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="I8" s="7">
-        <v>32070</v>
+        <v>214471</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1618,10 +1498,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>92</v>
+        <v>597</v>
       </c>
       <c r="N8" s="7">
-        <v>73174</v>
+        <v>465199</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1639,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D9" s="7">
-        <v>101349</v>
+        <v>634848</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1654,10 +1534,10 @@
         <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>242</v>
+        <v>1235</v>
       </c>
       <c r="I9" s="7">
-        <v>130383</v>
+        <v>674140</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1669,10 +1549,10 @@
         <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>359</v>
+        <v>1964</v>
       </c>
       <c r="N9" s="7">
-        <v>231732</v>
+        <v>1308988</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1695,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11351</v>
+        <v>10930</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1707,10 +1587,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>11642</v>
+        <v>14023</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1722,10 +1602,10 @@
         <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>22993</v>
+        <v>24952</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1743,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>20726</v>
+        <v>24316</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1758,10 +1638,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>27980</v>
+        <v>44061</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1773,10 +1653,10 @@
         <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N11" s="7">
-        <v>48706</v>
+        <v>68376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1794,10 +1674,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7">
-        <v>52736</v>
+        <v>86500</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1809,10 +1689,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="I12" s="7">
-        <v>76694</v>
+        <v>117273</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1824,10 +1704,10 @@
         <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="N12" s="7">
-        <v>129430</v>
+        <v>203773</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1845,40 +1725,40 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="D13" s="7">
-        <v>248217</v>
+        <v>422962</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>487</v>
+        <v>751</v>
       </c>
       <c r="I13" s="7">
-        <v>276518</v>
+        <v>444169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>791</v>
+        <v>1204</v>
       </c>
       <c r="N13" s="7">
-        <v>524735</v>
+        <v>867131</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>94</v>
@@ -1896,10 +1776,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="D14" s="7">
-        <v>216793</v>
+        <v>648157</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -1911,10 +1791,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="I14" s="7">
-        <v>198760</v>
+        <v>336277</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -1926,10 +1806,10 @@
         <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>505</v>
+        <v>817</v>
       </c>
       <c r="N14" s="7">
-        <v>415553</v>
+        <v>984435</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -1947,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D15" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1962,10 +1842,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>993</v>
+        <v>1513</v>
       </c>
       <c r="I15" s="7">
-        <v>591594</v>
+        <v>955803</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1977,10 +1857,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1605</v>
+        <v>2477</v>
       </c>
       <c r="N15" s="7">
-        <v>1141417</v>
+        <v>2148667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2000,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>11624</v>
+        <v>6814</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2015,34 +1895,34 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>15510</v>
+        <v>8261</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>27134</v>
+        <v>15075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,49 +1931,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>26889</v>
+        <v>13106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15766</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>76</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50265</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>40</v>
+      </c>
+      <c r="N17" s="7">
+        <v>28872</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>109</v>
-      </c>
-      <c r="N17" s="7">
-        <v>77155</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,49 +1982,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>91686</v>
+        <v>41952</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>87</v>
+      </c>
+      <c r="I18" s="7">
+        <v>56011</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="7">
-        <v>210</v>
-      </c>
-      <c r="I18" s="7">
-        <v>131349</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>134</v>
+      </c>
+      <c r="N18" s="7">
+        <v>97963</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="7">
-        <v>316</v>
-      </c>
-      <c r="N18" s="7">
-        <v>223035</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,10 +2033,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>453</v>
+        <v>348</v>
       </c>
       <c r="D19" s="7">
-        <v>430605</v>
+        <v>356928</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>131</v>
@@ -2168,10 +2048,10 @@
         <v>133</v>
       </c>
       <c r="H19" s="7">
-        <v>751</v>
+        <v>559</v>
       </c>
       <c r="I19" s="7">
-        <v>483197</v>
+        <v>598857</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>134</v>
@@ -2183,10 +2063,10 @@
         <v>136</v>
       </c>
       <c r="M19" s="7">
-        <v>1204</v>
+        <v>907</v>
       </c>
       <c r="N19" s="7">
-        <v>913802</v>
+        <v>955784</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -2204,10 +2084,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>478443</v>
+        <v>284884</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>140</v>
@@ -2219,10 +2099,10 @@
         <v>142</v>
       </c>
       <c r="H20" s="7">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="I20" s="7">
-        <v>376497</v>
+        <v>251475</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>143</v>
@@ -2234,10 +2114,10 @@
         <v>145</v>
       </c>
       <c r="M20" s="7">
-        <v>817</v>
+        <v>623</v>
       </c>
       <c r="N20" s="7">
-        <v>854940</v>
+        <v>536360</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>146</v>
@@ -2255,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D21" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2270,10 +2150,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>1513</v>
+        <v>1043</v>
       </c>
       <c r="I21" s="7">
-        <v>1056818</v>
+        <v>930370</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2285,10 +2165,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>2477</v>
+        <v>1718</v>
       </c>
       <c r="N21" s="7">
-        <v>2096066</v>
+        <v>1634054</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2308,10 +2188,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>7379</v>
+        <v>9306</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2323,34 +2203,34 @@
         <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>9564</v>
+        <v>11122</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>30</v>
+      </c>
+      <c r="N22" s="7">
+        <v>20428</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>14</v>
-      </c>
-      <c r="N22" s="7">
-        <v>16943</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,49 +2239,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7">
-        <v>14563</v>
+        <v>32529</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7">
+        <v>51669</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="7">
-        <v>26</v>
-      </c>
-      <c r="I23" s="7">
-        <v>17493</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>32056</v>
+        <v>84197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,46 +2290,46 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7">
-        <v>44947</v>
+        <v>88005</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="I24" s="7">
-        <v>62065</v>
+        <v>122753</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="7">
+        <v>307</v>
+      </c>
+      <c r="N24" s="7">
+        <v>210758</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M24" s="7">
-        <v>134</v>
-      </c>
-      <c r="N24" s="7">
-        <v>107012</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>172</v>
@@ -2461,10 +2341,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="D25" s="7">
-        <v>365141</v>
+        <v>430966</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>173</v>
@@ -2476,34 +2356,34 @@
         <v>175</v>
       </c>
       <c r="H25" s="7">
-        <v>559</v>
+        <v>738</v>
       </c>
       <c r="I25" s="7">
-        <v>505334</v>
+        <v>467706</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
-        <v>907</v>
+        <v>1217</v>
       </c>
       <c r="N25" s="7">
-        <v>870476</v>
+        <v>898672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,49 +2392,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="D26" s="7">
-        <v>295670</v>
+        <v>363753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="I26" s="7">
-        <v>276357</v>
+        <v>439838</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
-        <v>623</v>
+        <v>885</v>
       </c>
       <c r="N26" s="7">
-        <v>572027</v>
+        <v>803592</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>675</v>
+        <v>1003</v>
       </c>
       <c r="D27" s="7">
-        <v>727701</v>
+        <v>924558</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2578,10 +2458,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>1043</v>
+        <v>1559</v>
       </c>
       <c r="I27" s="7">
-        <v>870814</v>
+        <v>1093088</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2593,10 +2473,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1718</v>
+        <v>2562</v>
       </c>
       <c r="N27" s="7">
-        <v>1598515</v>
+        <v>2017647</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2610,55 +2490,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D28" s="7">
-        <v>9989</v>
+        <v>39411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I28" s="7">
-        <v>12476</v>
+        <v>46285</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="7">
+        <v>109</v>
+      </c>
+      <c r="N28" s="7">
+        <v>85695</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="M28" s="7">
-        <v>30</v>
-      </c>
-      <c r="N28" s="7">
-        <v>22465</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2547,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D29" s="7">
-        <v>34711</v>
+        <v>93358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="I29" s="7">
-        <v>59163</v>
+        <v>143707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="N29" s="7">
-        <v>93873</v>
+        <v>237065</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +2598,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="D30" s="7">
-        <v>94924</v>
+        <v>276865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
-        <v>199</v>
+        <v>682</v>
       </c>
       <c r="I30" s="7">
-        <v>138415</v>
+        <v>385763</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
-        <v>307</v>
+        <v>1023</v>
       </c>
       <c r="N30" s="7">
-        <v>233339</v>
+        <v>662629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,49 +2649,49 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>479</v>
+        <v>1635</v>
       </c>
       <c r="D31" s="7">
-        <v>440210</v>
+        <v>1498798</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
-        <v>738</v>
+        <v>2668</v>
       </c>
       <c r="I31" s="7">
-        <v>509878</v>
+        <v>1835584</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
-        <v>1217</v>
+        <v>4303</v>
       </c>
       <c r="N31" s="7">
-        <v>950088</v>
+        <v>3334382</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,46 +2700,46 @@
         <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>367</v>
+        <v>1241</v>
       </c>
       <c r="D32" s="7">
-        <v>383196</v>
+        <v>1547522</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
-        <v>518</v>
+        <v>1681</v>
       </c>
       <c r="I32" s="7">
-        <v>428490</v>
+        <v>1242062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
-        <v>885</v>
+        <v>2922</v>
       </c>
       <c r="N32" s="7">
-        <v>811686</v>
+        <v>2789584</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>231</v>
@@ -2871,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1003</v>
+        <v>3371</v>
       </c>
       <c r="D33" s="7">
-        <v>963030</v>
+        <v>3455954</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -2886,10 +2766,10 @@
         <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>1559</v>
+        <v>5350</v>
       </c>
       <c r="I33" s="7">
-        <v>1148422</v>
+        <v>3653401</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -2901,10 +2781,10 @@
         <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>2562</v>
+        <v>8721</v>
       </c>
       <c r="N33" s="7">
-        <v>2111452</v>
+        <v>7109355</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -2917,324 +2797,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>40</v>
-      </c>
-      <c r="D34" s="7">
-        <v>42255</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="7">
-        <v>69</v>
-      </c>
-      <c r="I34" s="7">
-        <v>51372</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M34" s="7">
-        <v>109</v>
-      </c>
-      <c r="N34" s="7">
-        <v>93626</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>114</v>
-      </c>
-      <c r="D35" s="7">
-        <v>101722</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="7">
-        <v>250</v>
-      </c>
-      <c r="I35" s="7">
-        <v>162636</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M35" s="7">
-        <v>364</v>
-      </c>
-      <c r="N35" s="7">
-        <v>264359</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>341</v>
-      </c>
-      <c r="D36" s="7">
-        <v>296632</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="7">
-        <v>682</v>
-      </c>
-      <c r="I36" s="7">
-        <v>429733</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1023</v>
-      </c>
-      <c r="N36" s="7">
-        <v>726365</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1635</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1525335</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2668</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1842116</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4303</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3367451</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1241</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1415207</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1681</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1312174</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M38" s="7">
-        <v>2922</v>
-      </c>
-      <c r="N38" s="7">
-        <v>2727381</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3381152</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3798030</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8721</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7179182</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
